--- a/data/case1/9/P1_14.xlsx
+++ b/data/case1/9/P1_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.0486524634030161</v>
+        <v>0.048758552317011095</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999992554593575</v>
+        <v>-0.0099999992874053589</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.008999999266084302</v>
+        <v>-0.0089999992983837984</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28398597559158389</v>
+        <v>0.28398630982225725</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999992913102318</v>
+        <v>-0.0059999993233184057</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999992736585739</v>
+        <v>-0.0059999993052386458</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999150394743</v>
+        <v>0.0072314355397384844</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999140950742</v>
+        <v>-0.019999999181043115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999992488819487</v>
+        <v>-0.0059999992982282535</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.005999999237921827</v>
+        <v>-0.0059999992966695004</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999992504344277</v>
+        <v>-0.0044999993093668422</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999992349344389</v>
+        <v>0.072096089089378701</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999992231780652</v>
+        <v>-0.0059999992787975742</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999168304853</v>
+        <v>-0.011999999221778523</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999992171499983</v>
+        <v>-0.0059999992682442382</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999992147297121</v>
+        <v>-0.0059999992629871102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999992115669087</v>
+        <v>-0.0059999992541417413</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999991851641425</v>
+        <v>-0.032733907794731287</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999992623819303</v>
+        <v>-0.0089999992940219542</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.050384781192370554</v>
+        <v>-0.0089999992754243863</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999992442768573</v>
+        <v>-0.0089999992715963373</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999992436586851</v>
+        <v>-0.053714722284969429</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999992602471934</v>
+        <v>-0.0089999992922820127</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999998967177987</v>
+        <v>-0.041999998998242916</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999998962110041</v>
+        <v>-0.041999998992919174</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.010241226924001978</v>
+        <v>-0.0059999993025243725</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0037921297337275561</v>
+        <v>-0.005999999298892611</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999992684556247</v>
+        <v>-0.0059999992834347537</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999214966195</v>
+        <v>-0.011999999221968594</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999146063097</v>
+        <v>-0.019999999148831105</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999191040558</v>
+        <v>-0.014999999184494683</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.035450733804810675</v>
+        <v>-0.020999999131974256</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.005999999269358014</v>
+        <v>-0.0059999992600223706</v>
       </c>
     </row>
   </sheetData>
